--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022AAA98-EDF0-439D-99EC-3F889DA7AB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6F817E-105F-45B2-9E74-3F89071090A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>ПОНЕДЕЛЬНИК</t>
   </si>
@@ -42,30 +42,64 @@
     <t>ПЯТНИЦА</t>
   </si>
   <si>
-    <t xml:space="preserve">- НФ
-- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь)
-</t>
+    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
+  </si>
+  <si>
+    <t>РАСЧЕТЫ</t>
+  </si>
+  <si>
+    <t>ЗАКАЗЫ</t>
+  </si>
+  <si>
+    <t>ДРУГОЕ</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; заказ</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; поставка</t>
+  </si>
+  <si>
+    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ Ташкент
+- ПОКОМ ЗПФ Ташкент
+- Черкизово Ташкент</t>
   </si>
   <si>
     <t>- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
 - ПОКОМ КИ Сочи
+- ПОКОМ КИ Новороссийск
 - Останкино КИ Ташкент
 - Мираторг КИ Ташкент
 - Мираторг ЗПФ Ташкент</t>
   </si>
   <si>
-    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
-  </si>
-  <si>
-    <t>- ПОКОМ ЗПФ (Новороссийск, Сочи)</t>
-  </si>
-  <si>
-    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
+    <t xml:space="preserve">- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь)
+</t>
+  </si>
+  <si>
+    <t>- Бычков
+- НОРД
+- ПОКОМ ЗПФ (Новроссийск, Сочи)</t>
+  </si>
+  <si>
+    <t>- НФ
+- ПОКОМ КИ Сочи
 - ПОКОМ КИ Новороссийск
-- ПОКОМ КИ Ташкент
-- ПОКОМ ЗПФ Ташкент
-- Черкизово Ташкент</t>
+- Пушкарный + ОПТы
+- Останкино КИ Ташкент
+- Мираторг КИ Ташкент
+- Мираторг ЗПФ Ташкент</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь) + ОПТы + СЕТИ
+- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
+</t>
+  </si>
+  <si>
+    <t>- ПОКОМ ЗПФ (Новороссийск, Сочи)
+- НОРД</t>
   </si>
 </sst>
 </file>
@@ -88,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -168,11 +208,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -189,6 +266,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -486,40 +572,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="187.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:5" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6F817E-105F-45B2-9E74-3F89071090A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF4BDC-FE1A-4915-B156-4D8F06034096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,12 +54,6 @@
     <t>ДРУГОЕ</t>
   </si>
   <si>
-    <t>- письмо НФ ==&gt; заказ</t>
-  </si>
-  <si>
-    <t>- письмо НФ ==&gt; поставка</t>
-  </si>
-  <si>
     <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
 - ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
 - ПОКОМ КИ Ташкент
@@ -100,6 +94,14 @@
   <si>
     <t>- ПОКОМ ЗПФ (Новороссийск, Сочи)
 - НОРД</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; поставка
+- ТН от Ост. КИ для ПРС</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; заказ
+- ТН от Ост.-молоко</t>
   </si>
 </sst>
 </file>
@@ -562,7 +564,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -599,19 +601,19 @@
     </row>
     <row r="3" spans="1:5" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -642,19 +644,19 @@
     </row>
     <row r="6" spans="1:5" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -683,12 +685,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFF4BDC-FE1A-4915-B156-4D8F06034096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F64EE-25B1-46F7-A163-EF10DE781F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,6 +101,7 @@
   </si>
   <si>
     <t>- письмо НФ ==&gt; заказ
+- НОРД документы на отгрузку
 - ТН от Ост.-молоко</t>
   </si>
 </sst>
@@ -564,7 +565,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -685,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F64EE-25B1-46F7-A163-EF10DE781F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0A21F4-4ADF-4E63-9770-22A43008AF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>ПОНЕДЕЛЬНИК</t>
   </si>
@@ -42,9 +42,6 @@
     <t>ПЯТНИЦА</t>
   </si>
   <si>
-    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
-  </si>
-  <si>
     <t>РАСЧЕТЫ</t>
   </si>
   <si>
@@ -52,13 +49,6 @@
   </si>
   <si>
     <t>ДРУГОЕ</t>
-  </si>
-  <si>
-    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ КИ Ташкент
-- ПОКОМ ЗПФ Ташкент
-- Черкизово Ташкент</t>
   </si>
   <si>
     <t>- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
@@ -67,10 +57,6 @@
 - Останкино КИ Ташкент
 - Мираторг КИ Ташкент
 - Мираторг ЗПФ Ташкент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь)
-</t>
   </si>
   <si>
     <t>- Бычков
@@ -87,11 +73,6 @@
 - Мираторг ЗПФ Ташкент</t>
   </si>
   <si>
-    <t xml:space="preserve">- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь) + ОПТы + СЕТИ
-- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
-</t>
-  </si>
-  <si>
     <t>- ПОКОМ ЗПФ (Новороссийск, Сочи)
 - НОРД</t>
   </si>
@@ -103,6 +84,21 @@
     <t>- письмо НФ ==&gt; заказ
 - НОРД документы на отгрузку
 - ТН от Ост.-молоко</t>
+  </si>
+  <si>
+    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ Ташкент
+- Черкизово Ташкент</t>
+  </si>
+  <si>
+    <t>- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
+  </si>
+  <si>
+    <t>- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь) + ОПТы + СЕТИ
+- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
   </si>
 </sst>
 </file>
@@ -565,7 +561,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -576,7 +572,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -600,26 +596,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -643,26 +637,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="169.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -688,10 +680,10 @@
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0A21F4-4ADF-4E63-9770-22A43008AF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1110D4-55B3-4AE3-8299-8E73ABDC0B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,10 +77,6 @@
 - НОРД</t>
   </si>
   <si>
-    <t>- письмо НФ ==&gt; поставка
-- ТН от Ост. КИ для ПРС</t>
-  </si>
-  <si>
     <t>- письмо НФ ==&gt; заказ
 - НОРД документы на отгрузку
 - ТН от Ост.-молоко</t>
@@ -99,6 +95,11 @@
     <t>- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь) + ОПТы + СЕТИ
 - Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
 - ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; поставка
+- ТН от Ост. КИ для ПРС
+- Мансуру ТН (ПРС, Табота)</t>
   </si>
 </sst>
 </file>
@@ -561,7 +562,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -601,11 +602,11 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -645,11 +646,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -680,10 +681,10 @@
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1110D4-55B3-4AE3-8299-8E73ABDC0B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE8B1A9-81B5-49E3-9149-8500D72FB50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>ПОНЕДЕЛЬНИК</t>
   </si>
@@ -77,11 +77,6 @@
 - НОРД</t>
   </si>
   <si>
-    <t>- письмо НФ ==&gt; заказ
-- НОРД документы на отгрузку
-- ТН от Ост.-молоко</t>
-  </si>
-  <si>
     <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
 - ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
 - ПОКОМ КИ Ташкент
@@ -99,7 +94,17 @@
   <si>
     <t>- письмо НФ ==&gt; поставка
 - ТН от Ост. КИ для ПРС
-- Мансуру ТН (ПРС, Табота)</t>
+- Мансуру ТН (ПРС, Табота)
+- накладные ПОКОМ</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; заказ
+- НОРД документы на отгрузку
+- ТН от Ост.-молоко
+- накладные ПОКОМ</t>
+  </si>
+  <si>
+    <t>- накладные ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -561,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -602,11 +607,11 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
@@ -646,11 +651,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -679,16 +684,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE8B1A9-81B5-49E3-9149-8500D72FB50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94050E5F-0BF0-4FAB-9898-542E669387EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,14 +51,6 @@
     <t>ДРУГОЕ</t>
   </si>
   <si>
-    <t>- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ КИ Сочи
-- ПОКОМ КИ Новороссийск
-- Останкино КИ Ташкент
-- Мираторг КИ Ташкент
-- Мираторг ЗПФ Ташкент</t>
-  </si>
-  <si>
     <t>- Бычков
 - НОРД
 - ПОКОМ ЗПФ (Новроссийск, Сочи)</t>
@@ -92,12 +84,6 @@
 - ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
   </si>
   <si>
-    <t>- письмо НФ ==&gt; поставка
-- ТН от Ост. КИ для ПРС
-- Мансуру ТН (ПРС, Табота)
-- накладные ПОКОМ</t>
-  </si>
-  <si>
     <t>- письмо НФ ==&gt; заказ
 - НОРД документы на отгрузку
 - ТН от Ост.-молоко
@@ -105,6 +91,18 @@
   </si>
   <si>
     <t>- накладные ПОКОМ</t>
+  </si>
+  <si>
+    <t>- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ Новороссийск
+- Останкино КИ Ташкент
+- Мираторг КИ Ташкент
+- Мираторг ЗПФ Ташкент</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; поставка
+- ТН от Ост. КИ для ПРС, Табота для Мансура
+- накладные ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -567,7 +565,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -604,17 +602,17 @@
     </row>
     <row r="3" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -645,17 +643,17 @@
     </row>
     <row r="6" spans="1:5" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -686,19 +684,19 @@
     </row>
     <row r="9" spans="1:5" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94050E5F-0BF0-4FAB-9898-542E669387EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB806885-53AA-4029-9DF2-7CC4092898C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,53 +56,52 @@
 - ПОКОМ ЗПФ (Новроссийск, Сочи)</t>
   </si>
   <si>
+    <t>- ПОКОМ ЗПФ (Новороссийск, Сочи)
+- НОРД</t>
+  </si>
+  <si>
+    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ Ташкент
+- Черкизово Ташкент</t>
+  </si>
+  <si>
+    <t>- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
+  </si>
+  <si>
+    <t>- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь) + ОПТы + СЕТИ
+- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; заказ
+- НОРД документы на отгрузку
+- ТН от Ост.-молоко
+- накладные ПОКОМ</t>
+  </si>
+  <si>
+    <t>- накладные ПОКОМ</t>
+  </si>
+  <si>
+    <t>- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
+- ПОКОМ КИ Новороссийск
+- Останкино КИ Ташкент
+- Мираторг КИ Ташкент
+- Мираторг ЗПФ Ташкент</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; поставка
+- ТН от Ост. КИ для ПРС, Табота для Мансура
+- накладные ПОКОМ</t>
+  </si>
+  <si>
     <t>- НФ
-- ПОКОМ КИ Сочи
 - ПОКОМ КИ Новороссийск
 - Пушкарный + ОПТы
 - Останкино КИ Ташкент
 - Мираторг КИ Ташкент
 - Мираторг ЗПФ Ташкент</t>
-  </si>
-  <si>
-    <t>- ПОКОМ ЗПФ (Новороссийск, Сочи)
-- НОРД</t>
-  </si>
-  <si>
-    <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ КИ Ташкент
-- Черкизово Ташкент</t>
-  </si>
-  <si>
-    <t>- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
-  </si>
-  <si>
-    <t>- Останкино КИ (Бердянск, Донецк, Луганск, Мелитополь) + ОПТы + СЕТИ
-- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
-  </si>
-  <si>
-    <t>- письмо НФ ==&gt; заказ
-- НОРД документы на отгрузку
-- ТН от Ост.-молоко
-- накладные ПОКОМ</t>
-  </si>
-  <si>
-    <t>- накладные ПОКОМ</t>
-  </si>
-  <si>
-    <t>- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
-- ПОКОМ КИ Новороссийск
-- Останкино КИ Ташкент
-- Мираторг КИ Ташкент
-- Мираторг ЗПФ Ташкент</t>
-  </si>
-  <si>
-    <t>- письмо НФ ==&gt; поставка
-- ТН от Ост. КИ для ПРС, Табота для Мансура
-- накладные ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -565,7 +564,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -602,17 +601,17 @@
     </row>
     <row r="3" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -646,14 +645,14 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -684,19 +683,19 @@
     </row>
     <row r="9" spans="1:5" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB806885-53AA-4029-9DF2-7CC4092898C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342EBD0F-86B1-453B-94FE-642DA413B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,21 +84,21 @@
     <t>- накладные ПОКОМ</t>
   </si>
   <si>
-    <t>- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
+    <t>- письмо НФ ==&gt; поставка
+- ТН от Ост. КИ для ПРС, Табота для Мансура
+- накладные ПОКОМ</t>
+  </si>
+  <si>
+    <t>- НФ
 - ПОКОМ КИ Новороссийск
+- Пушкарный + ОПТы
 - Останкино КИ Ташкент
 - Мираторг КИ Ташкент
 - Мираторг ЗПФ Ташкент</t>
   </si>
   <si>
-    <t>- письмо НФ ==&gt; поставка
-- ТН от Ост. КИ для ПРС, Табота для Мансура
-- накладные ПОКОМ</t>
-  </si>
-  <si>
-    <t>- НФ
-- ПОКОМ КИ Новороссийск
-- Пушкарный + ОПТы
+    <t>- ПОКОМ КИ Новороссийск
+- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
 - Останкино КИ Ташкент
 - Мираторг КИ Ташкент
 - Мираторг ЗПФ Ташкент</t>
@@ -564,7 +564,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="3" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="9" spans="1:5" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\графики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342EBD0F-86B1-453B-94FE-642DA413B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBCE2C7-7158-4037-B832-1118CFEF1F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,15 +51,6 @@
     <t>ДРУГОЕ</t>
   </si>
   <si>
-    <t>- Бычков
-- НОРД
-- ПОКОМ ЗПФ (Новроссийск, Сочи)</t>
-  </si>
-  <si>
-    <t>- ПОКОМ ЗПФ (Новороссийск, Сочи)
-- НОРД</t>
-  </si>
-  <si>
     <t>- ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)
 - ПОКОМ ЗПФ (Бердянск, Донецк, Луганск, Мелитополь)
 - ПОКОМ КИ Ташкент
@@ -102,6 +93,13 @@
 - Останкино КИ Ташкент
 - Мираторг КИ Ташкент
 - Мираторг ЗПФ Ташкент</t>
+  </si>
+  <si>
+    <t>- ПОКОМ ЗПФ Новороссийск</t>
+  </si>
+  <si>
+    <t>- Бычков
+- ПОКОМ ЗПФ Новроссийск</t>
   </si>
 </sst>
 </file>
@@ -564,7 +562,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -601,17 +599,17 @@
     </row>
     <row r="3" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -640,19 +638,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="188.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="170.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -683,19 +681,19 @@
     </row>
     <row r="9" spans="1:5" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBCE2C7-7158-4037-B832-1118CFEF1F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FAB02C-4100-4D8F-9ADC-B285ABEF4D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,12 +66,6 @@
 - ПОКОМ КИ (Бердянск, Донецк, Луганск, Мелитополь)</t>
   </si>
   <si>
-    <t>- письмо НФ ==&gt; заказ
-- НОРД документы на отгрузку
-- ТН от Ост.-молоко
-- накладные ПОКОМ</t>
-  </si>
-  <si>
     <t>- накладные ПОКОМ</t>
   </si>
   <si>
@@ -100,6 +94,11 @@
   <si>
     <t>- Бычков
 - ПОКОМ ЗПФ Новроссийск</t>
+  </si>
+  <si>
+    <t>- письмо НФ ==&gt; заказ
+- ТН от Ост.-молоко
+- накладные ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -562,7 +561,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -599,7 +598,7 @@
     </row>
     <row r="3" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -609,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -640,10 +639,10 @@
     </row>
     <row r="6" spans="1:5" ht="170.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -679,21 +678,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/графики/График расчетов.xlsx
+++ b/графики/График расчетов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\графики\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FAB02C-4100-4D8F-9ADC-B285ABEF4D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397AD9B9-EB90-4576-B060-56ED0639FFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>ПОНЕДЕЛЬНИК</t>
   </si>
@@ -74,31 +74,25 @@
 - накладные ПОКОМ</t>
   </si>
   <si>
+    <t>- письмо НФ ==&gt; заказ
+- ТН от Ост.-молоко
+- накладные ПОКОМ</t>
+  </si>
+  <si>
+    <t>- Бычков</t>
+  </si>
+  <si>
+    <t>- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
+- Останкино КИ Ташкент
+- Мираторг КИ Ташкент
+- Мираторг ЗПФ Ташкент</t>
+  </si>
+  <si>
     <t>- НФ
-- ПОКОМ КИ Новороссийск
 - Пушкарный + ОПТы
 - Останкино КИ Ташкент
 - Мираторг КИ Ташкент
 - Мираторг ЗПФ Ташкент</t>
-  </si>
-  <si>
-    <t>- ПОКОМ КИ Новороссийск
-- Останкино СЫРЫ (Бердянск, Донецк, Луганск, Мелитополь)
-- Останкино КИ Ташкент
-- Мираторг КИ Ташкент
-- Мираторг ЗПФ Ташкент</t>
-  </si>
-  <si>
-    <t>- ПОКОМ ЗПФ Новороссийск</t>
-  </si>
-  <si>
-    <t>- Бычков
-- ПОКОМ ЗПФ Новроссийск</t>
-  </si>
-  <si>
-    <t>- письмо НФ ==&gt; заказ
-- ТН от Ост.-молоко
-- накладные ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -561,7 +555,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -598,7 +592,7 @@
     </row>
     <row r="3" spans="1:5" ht="150.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -607,9 +601,7 @@
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -639,10 +631,10 @@
     </row>
     <row r="6" spans="1:5" ht="170.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -683,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>11</v>
